--- a/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170C7BC9-6A6B-497F-A646-315D688A4CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECCE82B-7E51-47D0-9E3C-2BFCA8E41922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C3B7458-61E9-496F-B2BB-C318C540D02B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BAC126C-BF82-4C8C-A0BE-C77B2F9E05EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,1813 +77,1765 @@
     <t>57,57%</t>
   </si>
   <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4BD916-237F-4994-A4EC-56F449E3C743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57248D00-B7A2-43A3-9A24-C48BDECD334D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2476,7 +2428,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -2485,13 +2437,13 @@
         <v>159697</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>256</v>
@@ -2500,13 +2452,13 @@
         <v>273634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2473,13 @@
         <v>268507</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>244</v>
@@ -2536,13 +2488,13 @@
         <v>259611</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>510</v>
@@ -2551,18 +2503,18 @@
         <v>528117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2574,13 +2526,13 @@
         <v>249100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>237</v>
@@ -2589,13 +2541,13 @@
         <v>239656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>471</v>
@@ -2604,13 +2556,13 @@
         <v>488755</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2577,13 @@
         <v>239445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>250</v>
@@ -2640,13 +2592,13 @@
         <v>251086</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>477</v>
@@ -2655,13 +2607,13 @@
         <v>490531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2628,13 @@
         <v>488545</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>487</v>
@@ -2691,13 +2643,13 @@
         <v>490742</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>948</v>
@@ -2706,18 +2658,18 @@
         <v>979286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2729,13 +2681,13 @@
         <v>175814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -2744,13 +2696,13 @@
         <v>174282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>346</v>
@@ -2759,13 +2711,13 @@
         <v>350096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2732,13 @@
         <v>143032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -2795,13 +2747,13 @@
         <v>159969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>298</v>
@@ -2810,13 +2762,13 @@
         <v>303001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2783,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -2846,13 +2798,13 @@
         <v>334251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>644</v>
@@ -2861,18 +2813,18 @@
         <v>653097</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2884,13 +2836,13 @@
         <v>238548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -2899,13 +2851,13 @@
         <v>179758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>426</v>
@@ -2914,13 +2866,13 @@
         <v>418307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2887,13 @@
         <v>118597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -2950,13 +2902,13 @@
         <v>190758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -2965,13 +2917,13 @@
         <v>309355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2938,13 @@
         <v>357145</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>383</v>
@@ -3001,13 +2953,13 @@
         <v>370516</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>744</v>
@@ -3016,18 +2968,18 @@
         <v>727662</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3039,13 +2991,13 @@
         <v>130404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -3054,13 +3006,13 @@
         <v>105331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -3069,13 +3021,13 @@
         <v>235736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3042,13 @@
         <v>70560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -3105,13 +3057,13 @@
         <v>97152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -3120,13 +3072,13 @@
         <v>167711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3093,13 @@
         <v>200964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>193</v>
@@ -3156,13 +3108,13 @@
         <v>202483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>397</v>
@@ -3171,18 +3123,18 @@
         <v>403447</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3194,13 +3146,13 @@
         <v>164296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -3209,13 +3161,13 @@
         <v>141681</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -3224,13 +3176,13 @@
         <v>305977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3197,13 @@
         <v>104455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -3260,13 +3212,13 @@
         <v>133421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>231</v>
@@ -3275,13 +3227,13 @@
         <v>237876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3248,13 @@
         <v>268751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -3311,13 +3263,13 @@
         <v>275102</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>531</v>
@@ -3326,18 +3278,18 @@
         <v>543853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3349,13 +3301,13 @@
         <v>372389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -3364,13 +3316,13 @@
         <v>303887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>664</v>
@@ -3379,13 +3331,13 @@
         <v>676276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3352,13 @@
         <v>241688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>319</v>
@@ -3415,13 +3367,13 @@
         <v>331301</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>551</v>
@@ -3430,13 +3382,13 @@
         <v>572988</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3403,13 @@
         <v>614077</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>618</v>
@@ -3466,13 +3418,13 @@
         <v>635188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1215</v>
@@ -3481,18 +3433,18 @@
         <v>1249264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3504,13 +3456,13 @@
         <v>439424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>312</v>
@@ -3519,13 +3471,13 @@
         <v>330533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>749</v>
@@ -3534,13 +3486,13 @@
         <v>769956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3507,13 @@
         <v>287820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>417</v>
@@ -3570,13 +3522,13 @@
         <v>434554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>699</v>
@@ -3585,13 +3537,13 @@
         <v>722375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3558,13 @@
         <v>727244</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>729</v>
@@ -3621,13 +3573,13 @@
         <v>765087</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1448</v>
@@ -3636,13 +3588,13 @@
         <v>1492331</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3611,13 @@
         <v>1924545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1540</v>
@@ -3674,28 +3626,28 @@
         <v>1575042</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>3444</v>
       </c>
       <c r="N28" s="7">
-        <v>3499588</v>
+        <v>3499587</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3662,13 @@
         <v>1319534</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1715</v>
@@ -3725,13 +3677,13 @@
         <v>1757936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>2993</v>
@@ -3740,13 +3692,13 @@
         <v>3077470</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3713,13 @@
         <v>3244079</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3255</v>
@@ -3776,33 +3728,33 @@
         <v>3332978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6437</v>
       </c>
       <c r="N30" s="7">
-        <v>6577058</v>
+        <v>6577057</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE1318-7F64-4D9E-994F-399EC12AB4AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843AEF61-7454-44D6-9F81-7F794E8AA095}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3900,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +3945,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,44 +3990,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4087,13 +4039,13 @@
         <v>269938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
@@ -4102,13 +4054,13 @@
         <v>293026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>514</v>
@@ -4117,13 +4069,13 @@
         <v>562964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4090,13 @@
         <v>226349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
@@ -4153,13 +4105,13 @@
         <v>201456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>404</v>
@@ -4168,13 +4120,13 @@
         <v>427805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4141,13 @@
         <v>496287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>454</v>
@@ -4204,13 +4156,13 @@
         <v>494482</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>918</v>
@@ -4219,18 +4171,18 @@
         <v>990769</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4242,13 +4194,13 @@
         <v>233239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -4257,13 +4209,13 @@
         <v>182600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>402</v>
@@ -4272,13 +4224,13 @@
         <v>415839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4245,13 @@
         <v>89877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -4308,13 +4260,13 @@
         <v>156479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -4323,13 +4275,13 @@
         <v>246356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4296,13 @@
         <v>323116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>315</v>
@@ -4359,13 +4311,13 @@
         <v>339079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -4374,18 +4326,18 @@
         <v>662195</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4397,13 +4349,13 @@
         <v>437354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>310</v>
@@ -4412,13 +4364,13 @@
         <v>332677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>715</v>
@@ -4427,13 +4379,13 @@
         <v>770031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4400,13 @@
         <v>208023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -4463,13 +4415,13 @@
         <v>286247</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -4478,13 +4430,13 @@
         <v>494270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4451,13 @@
         <v>645377</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>572</v>
@@ -4514,13 +4466,13 @@
         <v>618924</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1177</v>
@@ -4529,18 +4481,18 @@
         <v>1264301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4552,13 +4504,13 @@
         <v>132624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4567,13 +4519,13 @@
         <v>99501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4582,13 +4534,13 @@
         <v>232125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,10 +4573,10 @@
         <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4633,13 +4585,13 @@
         <v>187148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4606,13 @@
         <v>211449</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -4669,13 +4621,13 @@
         <v>207824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>395</v>
@@ -4684,18 +4636,18 @@
         <v>419273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4707,13 +4659,13 @@
         <v>206557</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -4722,13 +4674,13 @@
         <v>168177</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -4737,13 +4689,13 @@
         <v>374734</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4710,13 @@
         <v>67424</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -4773,13 +4725,13 @@
         <v>109771</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>170</v>
@@ -4788,13 +4740,13 @@
         <v>177195</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4761,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4824,13 +4776,13 @@
         <v>277948</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>528</v>
@@ -4839,18 +4791,18 @@
         <v>551929</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4862,13 +4814,13 @@
         <v>433616</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -4877,13 +4829,13 @@
         <v>384359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>760</v>
@@ -4892,13 +4844,13 @@
         <v>817975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,16 +4862,16 @@
         <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>228103</v>
+        <v>228104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>277</v>
@@ -4928,13 +4880,13 @@
         <v>305066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>489</v>
@@ -4943,13 +4895,13 @@
         <v>533169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,16 +4913,16 @@
         <v>617</v>
       </c>
       <c r="D24" s="7">
-        <v>661719</v>
+        <v>661720</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>632</v>
@@ -4979,13 +4931,13 @@
         <v>689425</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1249</v>
@@ -4994,18 +4946,18 @@
         <v>1351144</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5017,13 +4969,13 @@
         <v>484295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>357</v>
@@ -5032,13 +4984,13 @@
         <v>390870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>798</v>
@@ -5047,13 +4999,13 @@
         <v>875165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5020,13 @@
         <v>264115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -5083,13 +5035,13 @@
         <v>388991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>607</v>
@@ -5098,13 +5050,13 @@
         <v>653106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5071,13 @@
         <v>748410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>716</v>
@@ -5134,13 +5086,13 @@
         <v>779861</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1405</v>
@@ -5149,13 +5101,13 @@
         <v>1528271</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5124,13 @@
         <v>2197624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>1717</v>
@@ -5187,13 +5139,13 @@
         <v>1851209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>3764</v>
@@ -5202,13 +5154,13 @@
         <v>4048833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5175,13 @@
         <v>1162716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>1439</v>
@@ -5238,13 +5190,13 @@
         <v>1556333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>2541</v>
@@ -5253,13 +5205,13 @@
         <v>2719049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5226,13 @@
         <v>3360340</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3156</v>
@@ -5289,13 +5241,13 @@
         <v>3407542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6305</v>
@@ -5304,18 +5256,18 @@
         <v>6767882</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0DA6A-4C9B-492A-AB1B-D11697FF3F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D4BD66-EA48-460B-9815-787677B4B46C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5415,13 @@
         <v>160842</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -5478,13 +5430,13 @@
         <v>127780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>273</v>
@@ -5493,13 +5445,13 @@
         <v>288622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5466,13 @@
         <v>125027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5529,13 +5481,13 @@
         <v>139808</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>243</v>
@@ -5544,13 +5496,13 @@
         <v>264835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5517,13 @@
         <v>285869</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>257</v>
@@ -5580,13 +5532,13 @@
         <v>267588</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -5595,18 +5547,18 @@
         <v>553457</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5618,13 +5570,13 @@
         <v>301535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>253</v>
@@ -5633,13 +5585,13 @@
         <v>279856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -5648,13 +5600,13 @@
         <v>581391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5621,13 @@
         <v>194296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>211</v>
@@ -5684,13 +5636,13 @@
         <v>220105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>394</v>
@@ -5699,13 +5651,13 @@
         <v>414401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5672,13 @@
         <v>495831</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>464</v>
@@ -5735,13 +5687,13 @@
         <v>499961</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>932</v>
@@ -5750,18 +5702,18 @@
         <v>995792</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5773,13 +5725,13 @@
         <v>196904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5788,13 +5740,13 @@
         <v>175643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>377</v>
@@ -5803,13 +5755,13 @@
         <v>372547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5776,13 @@
         <v>118234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -5839,13 +5791,13 @@
         <v>151280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -5854,13 +5806,13 @@
         <v>269514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5827,13 @@
         <v>315138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>323</v>
@@ -5890,13 +5842,13 @@
         <v>326923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>654</v>
@@ -5905,18 +5857,18 @@
         <v>642061</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5880,13 @@
         <v>213229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5943,13 +5895,13 @@
         <v>173354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -5958,13 +5910,13 @@
         <v>386582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5931,13 @@
         <v>141915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -5994,13 +5946,13 @@
         <v>163349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -6009,13 +5961,13 @@
         <v>305264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +5982,13 @@
         <v>355144</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>316</v>
@@ -6045,13 +5997,13 @@
         <v>336703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>656</v>
@@ -6060,18 +6012,18 @@
         <v>691846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6083,13 +6035,13 @@
         <v>122195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -6098,13 +6050,13 @@
         <v>145778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -6113,13 +6065,13 @@
         <v>267974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6086,13 @@
         <v>84390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6149,13 +6101,13 @@
         <v>70764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -6164,13 +6116,13 @@
         <v>155153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6137,13 @@
         <v>206585</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
@@ -6200,13 +6152,13 @@
         <v>216542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>428</v>
@@ -6215,18 +6167,18 @@
         <v>423127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6238,13 +6190,13 @@
         <v>162918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -6253,13 +6205,13 @@
         <v>138279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -6268,13 +6220,13 @@
         <v>301196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6241,13 @@
         <v>100205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -6304,13 +6256,13 @@
         <v>130935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6319,13 +6271,13 @@
         <v>231141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6292,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
@@ -6355,13 +6307,13 @@
         <v>269214</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>518</v>
@@ -6370,18 +6322,18 @@
         <v>532337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6393,13 +6345,13 @@
         <v>356840</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -6408,13 +6360,13 @@
         <v>271259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -6423,13 +6375,13 @@
         <v>628099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,28 +6396,28 @@
         <v>256865</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
       </c>
       <c r="I23" s="7">
-        <v>372950</v>
+        <v>372951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>585</v>
@@ -6474,13 +6426,13 @@
         <v>629816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,28 +6447,28 @@
         <v>613705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>605</v>
       </c>
       <c r="I24" s="7">
-        <v>644209</v>
+        <v>644210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1146</v>
@@ -6525,18 +6477,18 @@
         <v>1257915</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6500,13 @@
         <v>473265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -6563,13 +6515,13 @@
         <v>435273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>846</v>
@@ -6578,13 +6530,13 @@
         <v>908538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6551,13 @@
         <v>265257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -6614,13 +6566,13 @@
         <v>345915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>580</v>
@@ -6629,13 +6581,13 @@
         <v>611172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,13 +6602,13 @@
         <v>738522</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>715</v>
@@ -6665,13 +6617,13 @@
         <v>781188</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1426</v>
@@ -6680,13 +6632,13 @@
         <v>1519710</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6655,13 @@
         <v>1987728</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>324</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H28" s="7">
         <v>1624</v>
@@ -6718,13 +6670,13 @@
         <v>1747221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>3521</v>
@@ -6733,13 +6685,13 @@
         <v>3734948</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6706,13 @@
         <v>1286188</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>1536</v>
@@ -6769,13 +6721,13 @@
         <v>1595107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="M29" s="7">
         <v>2755</v>
@@ -6784,13 +6736,13 @@
         <v>2881296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6757,13 @@
         <v>3273916</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3160</v>
@@ -6820,13 +6772,13 @@
         <v>3342328</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6276</v>
@@ -6835,18 +6787,18 @@
         <v>6616244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C976C27-1BC0-4794-84AB-6A7D688A6719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366BE7B4-9FA3-4D74-ACE7-E293167EA0A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +6946,13 @@
         <v>170308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H4" s="7">
         <v>281</v>
@@ -7009,13 +6961,13 @@
         <v>132670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>502</v>
@@ -7024,13 +6976,13 @@
         <v>302979</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +6997,13 @@
         <v>89990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -7060,13 +7012,13 @@
         <v>136619</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>44</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -7075,13 +7027,13 @@
         <v>226608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7048,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>534</v>
@@ -7111,13 +7063,13 @@
         <v>269289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -7126,18 +7078,18 @@
         <v>529587</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7149,13 +7101,13 @@
         <v>341581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>368</v>
@@ -7164,13 +7116,13 @@
         <v>270202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="M7" s="7">
         <v>628</v>
@@ -7179,13 +7131,13 @@
         <v>611783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>480</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7152,13 @@
         <v>172088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -7215,13 +7167,13 @@
         <v>262561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
@@ -7230,13 +7182,13 @@
         <v>434649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7203,13 @@
         <v>513669</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>682</v>
@@ -7266,13 +7218,13 @@
         <v>532763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1059</v>
@@ -7281,18 +7233,18 @@
         <v>1046432</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7304,13 +7256,13 @@
         <v>209920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -7319,13 +7271,13 @@
         <v>209636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
@@ -7334,13 +7286,13 @@
         <v>419556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7307,13 @@
         <v>105831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -7370,13 +7322,13 @@
         <v>149861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
@@ -7385,13 +7337,13 @@
         <v>255692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7358,13 @@
         <v>315751</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>511</v>
@@ -7421,13 +7373,13 @@
         <v>359497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>862</v>
@@ -7436,18 +7388,18 @@
         <v>675248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7459,13 +7411,13 @@
         <v>192670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>269</v>
@@ -7474,13 +7426,13 @@
         <v>186172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -7489,13 +7441,13 @@
         <v>378842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7462,13 @@
         <v>101568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -7525,13 +7477,13 @@
         <v>182378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7540,13 +7492,13 @@
         <v>283946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7513,13 @@
         <v>294238</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>499</v>
@@ -7576,13 +7528,13 @@
         <v>368550</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>751</v>
@@ -7591,18 +7543,18 @@
         <v>662788</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7614,13 +7566,13 @@
         <v>105215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -7629,13 +7581,13 @@
         <v>123754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
@@ -7644,13 +7596,13 @@
         <v>228969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7617,13 @@
         <v>90781</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -7680,13 +7632,13 @@
         <v>106077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M17" s="7">
         <v>331</v>
@@ -7695,13 +7647,13 @@
         <v>196858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,13 +7668,13 @@
         <v>195996</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -7731,13 +7683,13 @@
         <v>229831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
@@ -7746,18 +7698,18 @@
         <v>425827</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7769,13 +7721,13 @@
         <v>191457</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H19" s="7">
         <v>248</v>
@@ -7784,13 +7736,13 @@
         <v>125561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>552</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>516</v>
@@ -7799,13 +7751,13 @@
         <v>317019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7772,13 @@
         <v>83714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -7835,13 +7787,13 @@
         <v>141643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -7850,13 +7802,13 @@
         <v>225357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7823,13 @@
         <v>275171</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>442</v>
@@ -7886,13 +7838,13 @@
         <v>267204</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>810</v>
@@ -7901,18 +7853,18 @@
         <v>542376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7924,13 +7876,13 @@
         <v>371572</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
@@ -7939,13 +7891,13 @@
         <v>426371</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>858</v>
@@ -7954,13 +7906,13 @@
         <v>797944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7927,13 @@
         <v>245842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
@@ -7990,13 +7942,13 @@
         <v>354182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
@@ -8005,13 +7957,13 @@
         <v>600024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,13 +7978,13 @@
         <v>617414</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>931</v>
@@ -8041,13 +7993,13 @@
         <v>780553</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1519</v>
@@ -8056,18 +8008,18 @@
         <v>1397968</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8079,13 +8031,13 @@
         <v>510191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
@@ -8094,13 +8046,13 @@
         <v>462761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M25" s="7">
         <v>1095</v>
@@ -8109,13 +8061,13 @@
         <v>972952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8082,13 @@
         <v>336574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>415</v>
@@ -8145,13 +8097,13 @@
         <v>386096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M26" s="7">
         <v>696</v>
@@ -8160,13 +8112,13 @@
         <v>722670</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,13 +8133,13 @@
         <v>846765</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1040</v>
@@ -8196,13 +8148,13 @@
         <v>848857</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1791</v>
@@ -8211,13 +8163,13 @@
         <v>1695622</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8186,13 @@
         <v>2092914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>263</v>
       </c>
       <c r="H28" s="7">
         <v>2870</v>
@@ -8249,13 +8201,13 @@
         <v>1937128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>494</v>
       </c>
       <c r="M28" s="7">
         <v>5043</v>
@@ -8264,13 +8216,13 @@
         <v>4030042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>221</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8237,13 @@
         <v>1226388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>271</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>2259</v>
@@ -8300,13 +8252,13 @@
         <v>1719416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>503</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
         <v>3382</v>
@@ -8315,13 +8267,13 @@
         <v>2945804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>228</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,13 +8288,13 @@
         <v>3319302</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5129</v>
@@ -8351,13 +8303,13 @@
         <v>3656544</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8425</v>
@@ -8366,18 +8318,18 @@
         <v>6975846</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECCE82B-7E51-47D0-9E3C-2BFCA8E41922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA55D3D0-9C82-47A4-9F1E-0AE33221BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BAC126C-BF82-4C8C-A0BE-C77B2F9E05EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE7C1F14-CD5B-4CC1-84CD-F831C6A7B2C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="589">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,1759 +77,1729 @@
     <t>57,57%</t>
   </si>
   <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
     <t>42,23%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
   </si>
   <si>
     <t>39,64%</t>
@@ -2247,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57248D00-B7A2-43A3-9A24-C48BDECD334D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2909F4C2-557C-4EB5-B485-6FADAD66BD78}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,7 +2803,7 @@
         <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>238548</v>
+        <v>238549</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2935,7 +2905,7 @@
         <v>361</v>
       </c>
       <c r="D15" s="7">
-        <v>357145</v>
+        <v>357146</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3489,10 +3459,10 @@
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3477,13 @@
         <v>287820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>417</v>
@@ -3522,13 +3492,13 @@
         <v>434554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>699</v>
@@ -3537,13 +3507,13 @@
         <v>722375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3581,13 @@
         <v>1924545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1540</v>
@@ -3626,13 +3596,13 @@
         <v>1575042</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3444</v>
@@ -3641,13 +3611,13 @@
         <v>3499587</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3632,13 @@
         <v>1319534</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1715</v>
@@ -3677,13 +3647,13 @@
         <v>1757936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>2993</v>
@@ -3692,10 +3662,10 @@
         <v>3077470</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>179</v>
@@ -3778,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843AEF61-7454-44D6-9F81-7F794E8AA095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714BDBD-0708-47A1-82F3-A06084F2F112}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4209,13 +4179,13 @@
         <v>182600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>402</v>
@@ -4224,13 +4194,13 @@
         <v>415839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4215,13 @@
         <v>89877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -4260,13 +4230,13 @@
         <v>156479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -4275,13 +4245,13 @@
         <v>246356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4319,13 @@
         <v>437354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>310</v>
@@ -4364,13 +4334,13 @@
         <v>332677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>715</v>
@@ -4379,13 +4349,13 @@
         <v>770031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4370,13 @@
         <v>208023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -4415,13 +4385,13 @@
         <v>286247</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -4430,13 +4400,13 @@
         <v>494270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4474,13 @@
         <v>132624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4519,13 +4489,13 @@
         <v>99501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4534,13 +4504,13 @@
         <v>232125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4525,13 @@
         <v>78825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4570,13 +4540,13 @@
         <v>108323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4585,13 +4555,13 @@
         <v>187148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4629,13 @@
         <v>206557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -4674,13 +4644,13 @@
         <v>168177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -4689,13 +4659,13 @@
         <v>374734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4680,13 @@
         <v>67424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -4725,13 +4695,13 @@
         <v>109771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>170</v>
@@ -4740,13 +4710,13 @@
         <v>177195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4784,13 @@
         <v>433616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -4829,13 +4799,13 @@
         <v>384359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>760</v>
@@ -4844,13 +4814,13 @@
         <v>817975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,16 +4832,16 @@
         <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>228104</v>
+        <v>228103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>277</v>
@@ -4880,13 +4850,13 @@
         <v>305066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>489</v>
@@ -4895,13 +4865,13 @@
         <v>533169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,7 +4883,7 @@
         <v>617</v>
       </c>
       <c r="D24" s="7">
-        <v>661720</v>
+        <v>661719</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4969,13 +4939,13 @@
         <v>484295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>357</v>
@@ -4984,13 +4954,13 @@
         <v>390870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>798</v>
@@ -4999,13 +4969,13 @@
         <v>875165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +4990,13 @@
         <v>264115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -5035,13 +5005,13 @@
         <v>388991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>607</v>
@@ -5050,13 +5020,13 @@
         <v>653106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5094,13 @@
         <v>2197624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1717</v>
@@ -5139,13 +5109,13 @@
         <v>1851209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>3764</v>
@@ -5154,13 +5124,13 @@
         <v>4048833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5145,13 @@
         <v>1162716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>1439</v>
@@ -5190,13 +5160,13 @@
         <v>1556333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>2541</v>
@@ -5205,13 +5175,13 @@
         <v>2719049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D4BD66-EA48-460B-9815-787677B4B46C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F1844-3CD3-4647-ABD6-9B33191ABE4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5418,10 +5388,10 @@
         <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -5430,13 +5400,13 @@
         <v>127780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>273</v>
@@ -5445,13 +5415,13 @@
         <v>288622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,10 +5439,10 @@
         <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5481,13 +5451,13 @@
         <v>139808</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>243</v>
@@ -5496,13 +5466,13 @@
         <v>264835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5540,13 @@
         <v>301535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>253</v>
@@ -5585,13 +5555,13 @@
         <v>279856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -5600,13 +5570,13 @@
         <v>581391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5591,13 @@
         <v>194296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>211</v>
@@ -5636,13 +5606,13 @@
         <v>220105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>394</v>
@@ -5651,13 +5621,13 @@
         <v>414401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5695,13 @@
         <v>196904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5740,13 +5710,13 @@
         <v>175643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>377</v>
@@ -5755,13 +5725,13 @@
         <v>372547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5746,13 @@
         <v>118234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -5791,13 +5761,13 @@
         <v>151280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -5806,13 +5776,13 @@
         <v>269514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5850,13 @@
         <v>213229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5895,13 +5865,13 @@
         <v>173354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -5910,13 +5880,13 @@
         <v>386582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,16 +5898,16 @@
         <v>134</v>
       </c>
       <c r="D14" s="7">
-        <v>141915</v>
+        <v>141914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -5946,13 +5916,13 @@
         <v>163349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5961,13 +5931,13 @@
         <v>305264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +5949,7 @@
         <v>340</v>
       </c>
       <c r="D15" s="7">
-        <v>355144</v>
+        <v>355143</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6035,13 +6005,13 @@
         <v>122195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -6050,13 +6020,13 @@
         <v>145778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -6065,13 +6035,13 @@
         <v>267974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6056,13 @@
         <v>84390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6101,13 +6071,13 @@
         <v>70764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -6116,13 +6086,13 @@
         <v>155153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6160,13 @@
         <v>162918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -6205,13 +6175,13 @@
         <v>138279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -6220,13 +6190,13 @@
         <v>301196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6211,13 @@
         <v>100205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -6256,13 +6226,13 @@
         <v>130935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6363,10 +6333,10 @@
         <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -6375,13 +6345,13 @@
         <v>628099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,28 +6366,28 @@
         <v>256865</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
       </c>
       <c r="I23" s="7">
-        <v>372951</v>
+        <v>372950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>71</v>
       </c>
       <c r="M23" s="7">
         <v>585</v>
@@ -6426,13 +6396,13 @@
         <v>629816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6429,7 @@
         <v>605</v>
       </c>
       <c r="I24" s="7">
-        <v>644210</v>
+        <v>644209</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6500,13 +6470,13 @@
         <v>473265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -6515,13 +6485,13 @@
         <v>435273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>846</v>
@@ -6530,13 +6500,13 @@
         <v>908538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6521,13 @@
         <v>265257</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -6566,13 +6536,13 @@
         <v>345915</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>580</v>
@@ -6584,10 +6554,10 @@
         <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,10 +6628,10 @@
         <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>1624</v>
@@ -6673,10 +6643,10 @@
         <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>68</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>292</v>
       </c>
       <c r="M28" s="7">
         <v>3521</v>
@@ -6685,13 +6655,13 @@
         <v>3734948</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>447</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6676,13 @@
         <v>1286188</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>1536</v>
@@ -6721,13 +6691,13 @@
         <v>1595107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>300</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>2755</v>
@@ -6736,13 +6706,13 @@
         <v>2881296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366BE7B4-9FA3-4D74-ACE7-E293167EA0A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5211FF8-B696-42CD-9274-D71DC731BFA6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6809,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6946,13 +6916,13 @@
         <v>170308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>281</v>
@@ -6961,13 +6931,13 @@
         <v>132670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>502</v>
@@ -6976,13 +6946,13 @@
         <v>302979</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6967,13 @@
         <v>89990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -7012,13 +6982,13 @@
         <v>136619</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -7027,13 +6997,13 @@
         <v>226608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7071,13 @@
         <v>341581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>368</v>
@@ -7116,13 +7086,13 @@
         <v>270202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>628</v>
@@ -7131,13 +7101,13 @@
         <v>611783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7122,13 @@
         <v>172088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -7167,13 +7137,13 @@
         <v>262561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
@@ -7182,13 +7152,13 @@
         <v>434649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7226,13 @@
         <v>209920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -7271,13 +7241,13 @@
         <v>209636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
@@ -7286,13 +7256,13 @@
         <v>419556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7277,13 @@
         <v>105831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -7322,13 +7292,13 @@
         <v>149861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
@@ -7337,13 +7307,13 @@
         <v>255692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7381,13 @@
         <v>192670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>269</v>
@@ -7426,13 +7396,13 @@
         <v>186172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -7441,13 +7411,13 @@
         <v>378842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7432,13 @@
         <v>101568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -7477,13 +7447,13 @@
         <v>182378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7492,13 +7462,13 @@
         <v>283946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7536,13 @@
         <v>105215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -7581,13 +7551,13 @@
         <v>123754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
@@ -7596,13 +7566,13 @@
         <v>228969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7587,13 @@
         <v>90781</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -7632,13 +7602,13 @@
         <v>106077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>331</v>
@@ -7647,13 +7617,13 @@
         <v>196858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7691,13 @@
         <v>191457</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
         <v>248</v>
@@ -7736,10 +7706,10 @@
         <v>125561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>92</v>
@@ -7751,13 +7721,13 @@
         <v>317019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>549</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7742,13 @@
         <v>83714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -7787,13 +7757,13 @@
         <v>141643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -7802,13 +7772,13 @@
         <v>225357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7846,13 @@
         <v>371572</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
@@ -7891,13 +7861,13 @@
         <v>426371</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>858</v>
@@ -7906,13 +7876,13 @@
         <v>797944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7897,13 @@
         <v>245842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
@@ -7942,13 +7912,13 @@
         <v>354182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
@@ -7957,13 +7927,13 @@
         <v>600024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8001,13 @@
         <v>510191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
@@ -8046,13 +8016,13 @@
         <v>462761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>1095</v>
@@ -8061,13 +8031,13 @@
         <v>972952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8052,13 @@
         <v>336574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>415</v>
@@ -8097,13 +8067,13 @@
         <v>386096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>696</v>
@@ -8112,13 +8082,13 @@
         <v>722670</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8156,13 @@
         <v>2092914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>576</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H28" s="7">
         <v>2870</v>
@@ -8201,13 +8171,13 @@
         <v>1937128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>578</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M28" s="7">
         <v>5043</v>
@@ -8216,13 +8186,13 @@
         <v>4030042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>579</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8207,13 @@
         <v>1226388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>583</v>
       </c>
       <c r="H29" s="7">
         <v>2259</v>
@@ -8252,13 +8222,13 @@
         <v>1719416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>23</v>
+        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>3382</v>
@@ -8267,13 +8237,13 @@
         <v>2945804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>586</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA55D3D0-9C82-47A4-9F1E-0AE33221BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE751727-D82F-489B-ADAE-E01598B3DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE7C1F14-CD5B-4CC1-84CD-F831C6A7B2C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F37FDE5-4B20-4A04-A23C-724DBABA1C40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>57,57%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
   </si>
   <si>
     <t>38,49%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,22 @@
     <t>42,43%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>36,64%</t>
   </si>
   <si>
     <t>61,51%</t>
   </si>
   <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +134,55 @@
     <t>50,99%</t>
   </si>
   <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>48,84%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
   </si>
   <si>
     <t>49,91%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
   </si>
   <si>
     <t>51,16%</t>
   </si>
   <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>50,09%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1615 +191,1699 @@
     <t>55,14%</t>
   </si>
   <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>49,48%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>53,77%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>46,23%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
   </si>
   <si>
     <t>43,69%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2909F4C2-557C-4EB5-B485-6FADAD66BD78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FC1D8-FC9C-44F0-BBF4-B089E530B30E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2398,7 +2476,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -2407,13 +2485,13 @@
         <v>159697</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>256</v>
@@ -2422,13 +2500,13 @@
         <v>273634</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2521,13 @@
         <v>268507</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>244</v>
@@ -2458,13 +2536,13 @@
         <v>259611</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>510</v>
@@ -2473,18 +2551,18 @@
         <v>528117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2496,13 +2574,13 @@
         <v>249100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>237</v>
@@ -2511,13 +2589,13 @@
         <v>239656</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>471</v>
@@ -2526,13 +2604,13 @@
         <v>488755</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2625,13 @@
         <v>239445</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>250</v>
@@ -2562,13 +2640,13 @@
         <v>251086</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>477</v>
@@ -2577,13 +2655,13 @@
         <v>490531</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2676,13 @@
         <v>488545</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>487</v>
@@ -2613,13 +2691,13 @@
         <v>490742</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>948</v>
@@ -2628,18 +2706,18 @@
         <v>979286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2651,13 +2729,13 @@
         <v>175814</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -2666,13 +2744,13 @@
         <v>174282</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>346</v>
@@ -2681,13 +2759,13 @@
         <v>350096</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2780,13 @@
         <v>143032</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -2717,13 +2795,13 @@
         <v>159969</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>298</v>
@@ -2732,13 +2810,13 @@
         <v>303001</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2831,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -2768,13 +2846,13 @@
         <v>334251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>644</v>
@@ -2783,18 +2861,18 @@
         <v>653097</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2803,16 +2881,16 @@
         <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>238549</v>
+        <v>238548</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -2821,13 +2899,13 @@
         <v>179758</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>426</v>
@@ -2836,13 +2914,13 @@
         <v>418307</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2935,13 @@
         <v>118597</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -2872,13 +2950,13 @@
         <v>190758</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -2887,13 +2965,13 @@
         <v>309355</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,16 +2983,16 @@
         <v>361</v>
       </c>
       <c r="D15" s="7">
-        <v>357146</v>
+        <v>357145</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>383</v>
@@ -2923,13 +3001,13 @@
         <v>370516</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>744</v>
@@ -2938,18 +3016,18 @@
         <v>727662</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2961,13 +3039,13 @@
         <v>130404</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -2976,13 +3054,13 @@
         <v>105331</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -2991,13 +3069,13 @@
         <v>235736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3090,13 @@
         <v>70560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -3027,13 +3105,13 @@
         <v>97152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -3042,13 +3120,13 @@
         <v>167711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3141,13 @@
         <v>200964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>193</v>
@@ -3078,13 +3156,13 @@
         <v>202483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>397</v>
@@ -3093,18 +3171,18 @@
         <v>403447</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3116,13 +3194,13 @@
         <v>164296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -3131,13 +3209,13 @@
         <v>141681</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -3146,13 +3224,13 @@
         <v>305977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3245,13 @@
         <v>104455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -3182,13 +3260,13 @@
         <v>133421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>231</v>
@@ -3197,13 +3275,13 @@
         <v>237876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3296,13 @@
         <v>268751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -3233,13 +3311,13 @@
         <v>275102</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>531</v>
@@ -3248,18 +3326,18 @@
         <v>543853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3349,13 @@
         <v>372389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -3286,13 +3364,13 @@
         <v>303887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>664</v>
@@ -3301,13 +3379,13 @@
         <v>676276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3400,13 @@
         <v>241688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>319</v>
@@ -3337,13 +3415,13 @@
         <v>331301</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>551</v>
@@ -3352,13 +3430,13 @@
         <v>572988</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3451,13 @@
         <v>614077</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>618</v>
@@ -3388,13 +3466,13 @@
         <v>635188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1215</v>
@@ -3403,18 +3481,18 @@
         <v>1249264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3426,13 +3504,13 @@
         <v>439424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>312</v>
@@ -3441,13 +3519,13 @@
         <v>330533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>749</v>
@@ -3456,13 +3534,13 @@
         <v>769956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3555,13 @@
         <v>287820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>417</v>
@@ -3492,13 +3570,13 @@
         <v>434554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>699</v>
@@ -3507,13 +3585,13 @@
         <v>722375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3606,13 @@
         <v>727244</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>729</v>
@@ -3543,13 +3621,13 @@
         <v>765087</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1448</v>
@@ -3558,13 +3636,13 @@
         <v>1492331</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3659,13 @@
         <v>1924545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>1540</v>
@@ -3596,28 +3674,28 @@
         <v>1575042</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>3444</v>
       </c>
       <c r="N28" s="7">
-        <v>3499587</v>
+        <v>3499588</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3710,13 @@
         <v>1319534</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>1715</v>
@@ -3647,13 +3725,13 @@
         <v>1757936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>2993</v>
@@ -3662,13 +3740,13 @@
         <v>3077470</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3761,13 @@
         <v>3244079</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3255</v>
@@ -3698,33 +3776,33 @@
         <v>3332978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6437</v>
       </c>
       <c r="N30" s="7">
-        <v>6577057</v>
+        <v>6577058</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714BDBD-0708-47A1-82F3-A06084F2F112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25235F3-228C-4BEE-996A-70E9BFB93236}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3870,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,44 +4038,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4009,13 +4087,13 @@
         <v>269938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
@@ -4024,13 +4102,13 @@
         <v>293026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>514</v>
@@ -4039,13 +4117,13 @@
         <v>562964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4138,13 @@
         <v>226349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
@@ -4075,13 +4153,13 @@
         <v>201456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>404</v>
@@ -4090,13 +4168,13 @@
         <v>427805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4189,13 @@
         <v>496287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>454</v>
@@ -4126,13 +4204,13 @@
         <v>494482</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>918</v>
@@ -4141,18 +4219,18 @@
         <v>990769</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4164,13 +4242,13 @@
         <v>233239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -4179,13 +4257,13 @@
         <v>182600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>402</v>
@@ -4194,13 +4272,13 @@
         <v>415839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4293,13 @@
         <v>89877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -4230,13 +4308,13 @@
         <v>156479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -4245,13 +4323,13 @@
         <v>246356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4344,13 @@
         <v>323116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>315</v>
@@ -4281,13 +4359,13 @@
         <v>339079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -4296,18 +4374,18 @@
         <v>662195</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4319,13 +4397,13 @@
         <v>437354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>310</v>
@@ -4334,13 +4412,13 @@
         <v>332677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>715</v>
@@ -4349,13 +4427,13 @@
         <v>770031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4448,13 @@
         <v>208023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -4385,13 +4463,13 @@
         <v>286247</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -4400,13 +4478,13 @@
         <v>494270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4499,13 @@
         <v>645377</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>572</v>
@@ -4436,13 +4514,13 @@
         <v>618924</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1177</v>
@@ -4451,18 +4529,18 @@
         <v>1264301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4474,13 +4552,13 @@
         <v>132624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4489,13 +4567,13 @@
         <v>99501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4504,13 +4582,13 @@
         <v>232125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4603,13 @@
         <v>78825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4540,13 +4618,13 @@
         <v>108323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4555,13 +4633,13 @@
         <v>187148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4654,13 @@
         <v>211449</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -4591,13 +4669,13 @@
         <v>207824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>395</v>
@@ -4606,18 +4684,18 @@
         <v>419273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4629,13 +4707,13 @@
         <v>206557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -4644,13 +4722,13 @@
         <v>168177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -4659,13 +4737,13 @@
         <v>374734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4758,13 @@
         <v>67424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -4695,13 +4773,13 @@
         <v>109771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>170</v>
@@ -4710,13 +4788,13 @@
         <v>177195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4809,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4746,13 +4824,13 @@
         <v>277948</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>528</v>
@@ -4761,18 +4839,18 @@
         <v>551929</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4784,13 +4862,13 @@
         <v>433616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -4799,13 +4877,13 @@
         <v>384359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>760</v>
@@ -4814,13 +4892,13 @@
         <v>817975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4913,13 @@
         <v>228103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>277</v>
@@ -4850,13 +4928,13 @@
         <v>305066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>489</v>
@@ -4865,13 +4943,13 @@
         <v>533169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4964,13 @@
         <v>661719</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>632</v>
@@ -4901,13 +4979,13 @@
         <v>689425</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1249</v>
@@ -4916,18 +4994,18 @@
         <v>1351144</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4939,13 +5017,13 @@
         <v>484295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>357</v>
@@ -4954,13 +5032,13 @@
         <v>390870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>798</v>
@@ -4969,13 +5047,13 @@
         <v>875165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5068,13 @@
         <v>264115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -5005,13 +5083,13 @@
         <v>388991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>607</v>
@@ -5020,13 +5098,13 @@
         <v>653106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5119,13 @@
         <v>748410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>716</v>
@@ -5056,13 +5134,13 @@
         <v>779861</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1405</v>
@@ -5071,13 +5149,13 @@
         <v>1528271</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5172,13 @@
         <v>2197624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1717</v>
@@ -5109,13 +5187,13 @@
         <v>1851209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>3764</v>
@@ -5124,13 +5202,13 @@
         <v>4048833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5223,13 @@
         <v>1162716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>1439</v>
@@ -5160,13 +5238,13 @@
         <v>1556333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>2541</v>
@@ -5175,13 +5253,13 @@
         <v>2719049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5274,13 @@
         <v>3360340</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3156</v>
@@ -5211,13 +5289,13 @@
         <v>3407542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6305</v>
@@ -5226,18 +5304,18 @@
         <v>6767882</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5261,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F1844-3CD3-4647-ABD6-9B33191ABE4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E29F275-A1F0-45F4-A75E-998AE8054DBC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5278,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5385,13 +5463,13 @@
         <v>160842</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -5400,13 +5478,13 @@
         <v>127780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>273</v>
@@ -5415,13 +5493,13 @@
         <v>288622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5514,13 @@
         <v>125027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5451,13 +5529,13 @@
         <v>139808</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>243</v>
@@ -5466,13 +5544,13 @@
         <v>264835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5565,13 @@
         <v>285869</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>257</v>
@@ -5502,13 +5580,13 @@
         <v>267588</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -5517,18 +5595,18 @@
         <v>553457</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5540,13 +5618,13 @@
         <v>301535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>253</v>
@@ -5555,13 +5633,13 @@
         <v>279856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -5570,13 +5648,13 @@
         <v>581391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5669,13 @@
         <v>194296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>211</v>
@@ -5606,13 +5684,13 @@
         <v>220105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>394</v>
@@ -5621,13 +5699,13 @@
         <v>414401</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5720,13 @@
         <v>495831</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>464</v>
@@ -5657,13 +5735,13 @@
         <v>499961</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>932</v>
@@ -5672,18 +5750,18 @@
         <v>995792</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5695,13 +5773,13 @@
         <v>196904</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5710,13 +5788,13 @@
         <v>175643</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>377</v>
@@ -5725,13 +5803,13 @@
         <v>372547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5824,13 @@
         <v>118234</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -5761,13 +5839,13 @@
         <v>151280</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -5776,13 +5854,13 @@
         <v>269514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5875,13 @@
         <v>315138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>323</v>
@@ -5812,13 +5890,13 @@
         <v>326923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>654</v>
@@ -5827,18 +5905,18 @@
         <v>642061</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5850,13 +5928,13 @@
         <v>213229</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5865,13 +5943,13 @@
         <v>173354</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -5880,13 +5958,13 @@
         <v>386582</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5976,13 @@
         <v>134</v>
       </c>
       <c r="D14" s="7">
-        <v>141914</v>
+        <v>141915</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>378</v>
@@ -5934,10 +6012,10 @@
         <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,16 +6027,16 @@
         <v>340</v>
       </c>
       <c r="D15" s="7">
-        <v>355143</v>
+        <v>355144</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>316</v>
@@ -5967,13 +6045,13 @@
         <v>336703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>656</v>
@@ -5982,18 +6060,18 @@
         <v>691846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6008,10 +6086,10 @@
         <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -6020,13 +6098,13 @@
         <v>145778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -6035,13 +6113,13 @@
         <v>267974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6134,13 @@
         <v>84390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6071,13 +6149,13 @@
         <v>70764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -6086,13 +6164,13 @@
         <v>155153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6185,13 @@
         <v>206585</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
@@ -6122,13 +6200,13 @@
         <v>216542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>428</v>
@@ -6137,18 +6215,18 @@
         <v>423127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6160,13 +6238,13 @@
         <v>162918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -6175,13 +6253,13 @@
         <v>138279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -6190,13 +6268,13 @@
         <v>301196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6289,13 @@
         <v>100205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -6226,13 +6304,13 @@
         <v>130935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6241,13 +6319,13 @@
         <v>231141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6340,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
@@ -6277,13 +6355,13 @@
         <v>269214</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>518</v>
@@ -6292,18 +6370,18 @@
         <v>532337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6315,13 +6393,13 @@
         <v>356840</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -6330,13 +6408,13 @@
         <v>271259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -6345,13 +6423,13 @@
         <v>628099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6444,13 @@
         <v>256865</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -6381,13 +6459,13 @@
         <v>372950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>71</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>585</v>
@@ -6396,13 +6474,13 @@
         <v>629816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>28</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6495,13 @@
         <v>613705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>605</v>
@@ -6432,13 +6510,13 @@
         <v>644209</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1146</v>
@@ -6447,18 +6525,18 @@
         <v>1257915</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6470,13 +6548,13 @@
         <v>473265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -6485,13 +6563,13 @@
         <v>435273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>846</v>
@@ -6500,13 +6578,13 @@
         <v>908538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6599,13 @@
         <v>265257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -6536,13 +6614,13 @@
         <v>345915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>580</v>
@@ -6551,13 +6629,13 @@
         <v>611172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6650,13 @@
         <v>738522</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>715</v>
@@ -6587,13 +6665,13 @@
         <v>781188</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1426</v>
@@ -6602,13 +6680,13 @@
         <v>1519710</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6703,13 @@
         <v>1987728</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>1624</v>
@@ -6640,13 +6718,13 @@
         <v>1747221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>3521</v>
@@ -6655,13 +6733,13 @@
         <v>3734948</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6754,13 @@
         <v>1286188</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>1536</v>
@@ -6691,13 +6769,13 @@
         <v>1595107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>300</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>58</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>2755</v>
@@ -6706,13 +6784,13 @@
         <v>2881296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>353</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6805,13 @@
         <v>3273916</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3160</v>
@@ -6742,13 +6820,13 @@
         <v>3342328</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6276</v>
@@ -6757,18 +6835,18 @@
         <v>6616244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6792,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5211FF8-B696-42CD-9274-D71DC731BFA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C9675-CB42-410F-9D75-363D163BF7E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6809,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6916,13 +6994,13 @@
         <v>170308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>281</v>
@@ -6931,13 +7009,13 @@
         <v>132670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>502</v>
@@ -6946,13 +7024,13 @@
         <v>302979</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +7045,13 @@
         <v>89990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -6982,13 +7060,13 @@
         <v>136619</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>481</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -6997,13 +7075,13 @@
         <v>226608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7096,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>534</v>
@@ -7033,13 +7111,13 @@
         <v>269289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -7048,18 +7126,18 @@
         <v>529587</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7071,13 +7149,13 @@
         <v>341581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="H7" s="7">
         <v>368</v>
@@ -7086,13 +7164,13 @@
         <v>270202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>628</v>
@@ -7101,13 +7179,13 @@
         <v>611783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>472</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7200,13 @@
         <v>172088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -7137,13 +7215,13 @@
         <v>262561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
@@ -7152,13 +7230,13 @@
         <v>434649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7251,13 @@
         <v>513669</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>682</v>
@@ -7188,13 +7266,13 @@
         <v>532763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1059</v>
@@ -7203,18 +7281,18 @@
         <v>1046432</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7226,13 +7304,13 @@
         <v>209920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -7241,13 +7319,13 @@
         <v>209636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
@@ -7256,13 +7334,13 @@
         <v>419556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>489</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7355,13 @@
         <v>105831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -7292,13 +7370,13 @@
         <v>149861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
@@ -7307,13 +7385,13 @@
         <v>255692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7406,13 @@
         <v>315751</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>511</v>
@@ -7343,13 +7421,13 @@
         <v>359497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>862</v>
@@ -7358,18 +7436,18 @@
         <v>675248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7381,13 +7459,13 @@
         <v>192670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>269</v>
@@ -7396,13 +7474,13 @@
         <v>186172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -7411,13 +7489,13 @@
         <v>378842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7510,13 @@
         <v>101568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -7447,13 +7525,13 @@
         <v>182378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7462,13 +7540,13 @@
         <v>283946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7561,13 @@
         <v>294238</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>499</v>
@@ -7498,13 +7576,13 @@
         <v>368550</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>751</v>
@@ -7513,18 +7591,18 @@
         <v>662788</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7536,13 +7614,13 @@
         <v>105215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -7551,13 +7629,13 @@
         <v>123754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
@@ -7566,13 +7644,13 @@
         <v>228969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7665,13 @@
         <v>90781</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -7602,13 +7680,13 @@
         <v>106077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>331</v>
@@ -7617,13 +7695,13 @@
         <v>196858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>544</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7716,13 @@
         <v>195996</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -7653,13 +7731,13 @@
         <v>229831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
@@ -7668,18 +7746,18 @@
         <v>425827</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7691,13 +7769,13 @@
         <v>191457</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>248</v>
@@ -7706,13 +7784,13 @@
         <v>125561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>552</v>
       </c>
       <c r="M19" s="7">
         <v>516</v>
@@ -7721,13 +7799,13 @@
         <v>317019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>554</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7820,13 @@
         <v>83714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -7757,13 +7835,13 @@
         <v>141643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>560</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -7772,13 +7850,13 @@
         <v>225357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7871,13 @@
         <v>275171</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>442</v>
@@ -7808,13 +7886,13 @@
         <v>267204</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>810</v>
@@ -7823,18 +7901,18 @@
         <v>542376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7846,13 +7924,13 @@
         <v>371572</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>566</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
@@ -7861,13 +7939,13 @@
         <v>426371</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>547</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>858</v>
@@ -7876,13 +7954,13 @@
         <v>797944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7975,13 @@
         <v>245842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>554</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>573</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
@@ -7912,13 +7990,13 @@
         <v>354182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>555</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
@@ -7927,13 +8005,13 @@
         <v>600024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +8026,13 @@
         <v>617414</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>931</v>
@@ -7963,13 +8041,13 @@
         <v>780553</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1519</v>
@@ -7978,18 +8056,18 @@
         <v>1397968</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8001,13 +8079,13 @@
         <v>510191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>397</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
@@ -8016,13 +8094,13 @@
         <v>462761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="M25" s="7">
         <v>1095</v>
@@ -8031,13 +8109,13 @@
         <v>972952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>586</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,13 +8130,13 @@
         <v>336574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>415</v>
@@ -8067,13 +8145,13 @@
         <v>386096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>696</v>
@@ -8082,13 +8160,13 @@
         <v>722670</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8181,13 @@
         <v>846765</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>1040</v>
@@ -8118,13 +8196,13 @@
         <v>848857</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1791</v>
@@ -8133,13 +8211,13 @@
         <v>1695622</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8234,13 @@
         <v>2092914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>2870</v>
@@ -8171,13 +8249,13 @@
         <v>1937128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>485</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>5043</v>
@@ -8186,13 +8264,13 @@
         <v>4030042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,13 +8285,13 @@
         <v>1226388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>278</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>2259</v>
@@ -8222,13 +8300,13 @@
         <v>1719416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>493</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>3382</v>
@@ -8237,13 +8315,13 @@
         <v>2945804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8336,13 @@
         <v>3319302</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>5129</v>
@@ -8273,13 +8351,13 @@
         <v>3656544</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>8425</v>
@@ -8288,18 +8366,18 @@
         <v>6975846</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE751727-D82F-489B-ADAE-E01598B3DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D93961-808D-4530-9C84-A46729D50F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F37FDE5-4B20-4A04-A23C-724DBABA1C40}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6FDEEC1F-F21C-4D96-AF93-55DBF2D39CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -569,7 +569,58 @@
     <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>54,39%</t>
@@ -680,465 +731,471 @@
     <t>41,09%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>58,02%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>41,98%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
     <t>38,3%</t>
   </si>
   <si>
@@ -1301,9 +1358,6 @@
     <t>54,04%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
     <t>42,11%</t>
   </si>
   <si>
@@ -1319,9 +1373,6 @@
     <t>41,85%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
     <t>45,96%</t>
   </si>
   <si>
@@ -1448,442 +1499,436 @@
     <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FC1D8-FC9C-44F0-BBF4-B089E530B30E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF231EE-1C42-4437-AB84-4FCEB57AF9A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2637,7 +2682,7 @@
         <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>251086</v>
+        <v>251085</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -2688,7 +2733,7 @@
         <v>487</v>
       </c>
       <c r="I9" s="7">
-        <v>490742</v>
+        <v>490741</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3376,7 +3421,7 @@
         <v>664</v>
       </c>
       <c r="N22" s="7">
-        <v>676276</v>
+        <v>676277</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>127</v>
@@ -3478,7 +3523,7 @@
         <v>1215</v>
       </c>
       <c r="N24" s="7">
-        <v>1249264</v>
+        <v>1249265</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -3686,7 +3731,7 @@
         <v>3444</v>
       </c>
       <c r="N28" s="7">
-        <v>3499588</v>
+        <v>3499587</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>164</v>
@@ -3788,7 +3833,7 @@
         <v>6437</v>
       </c>
       <c r="N30" s="7">
-        <v>6577058</v>
+        <v>6577057</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -3826,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25235F3-228C-4BEE-996A-70E9BFB93236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E1B224-65B8-4BA1-BAF8-72899A0D8FE7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3944,43 +3989,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="D4" s="7">
+        <v>185496</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="I4" s="7">
+        <v>141112</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="N4" s="7">
+        <v>326608</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,43 +4040,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="D5" s="7">
+        <v>99904</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I5" s="7">
+        <v>127022</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="N5" s="7">
+        <v>226925</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,43 +4091,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D6" s="7">
+        <v>285400</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="I6" s="7">
+        <v>268134</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>511</v>
+      </c>
+      <c r="N6" s="7">
+        <v>553533</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4150,13 @@
         <v>269938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
@@ -4102,13 +4165,13 @@
         <v>293026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>514</v>
@@ -4117,13 +4180,13 @@
         <v>562964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4201,13 @@
         <v>226349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
@@ -4153,13 +4216,13 @@
         <v>201456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>404</v>
@@ -4168,13 +4231,13 @@
         <v>427805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4305,13 @@
         <v>233239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -4257,13 +4320,13 @@
         <v>182600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>402</v>
@@ -4272,13 +4335,13 @@
         <v>415839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4356,13 @@
         <v>89877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -4308,13 +4371,13 @@
         <v>156479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -4323,13 +4386,13 @@
         <v>246356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,49 +4454,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>437354</v>
+        <v>251859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="I13" s="7">
-        <v>332677</v>
+        <v>191564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>715</v>
+        <v>412</v>
       </c>
       <c r="N13" s="7">
-        <v>770031</v>
+        <v>443424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,49 +4505,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>208023</v>
+        <v>108118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="I14" s="7">
-        <v>286247</v>
+        <v>159226</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>462</v>
+        <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>494270</v>
+        <v>267344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4556,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>605</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>645377</v>
+        <v>359977</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4508,10 +4571,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>572</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>618924</v>
+        <v>350790</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4523,10 +4586,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1177</v>
+        <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>1264301</v>
+        <v>710768</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4552,13 +4615,13 @@
         <v>132624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4567,13 +4630,13 @@
         <v>99501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4582,13 +4645,13 @@
         <v>232125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4666,13 @@
         <v>78825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4618,13 +4681,13 @@
         <v>108323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4633,13 +4696,13 @@
         <v>187148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4770,13 @@
         <v>206557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -4722,13 +4785,13 @@
         <v>168177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -4737,13 +4800,13 @@
         <v>374734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4821,13 @@
         <v>67424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -4773,13 +4836,13 @@
         <v>109771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>170</v>
@@ -4788,13 +4851,13 @@
         <v>177195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4925,13 @@
         <v>433616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -4877,13 +4940,13 @@
         <v>384359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>760</v>
@@ -4892,13 +4955,13 @@
         <v>817975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4976,13 @@
         <v>228103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>277</v>
@@ -4928,13 +4991,13 @@
         <v>305066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>489</v>
@@ -4943,13 +5006,13 @@
         <v>533169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5080,13 @@
         <v>484295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>357</v>
@@ -5032,13 +5095,13 @@
         <v>390870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>798</v>
@@ -5047,13 +5110,13 @@
         <v>875165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5131,13 @@
         <v>264115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -5083,13 +5146,13 @@
         <v>388991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>607</v>
@@ -5098,13 +5161,13 @@
         <v>653106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5235,13 @@
         <v>2197624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>1717</v>
@@ -5187,13 +5250,13 @@
         <v>1851209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>3764</v>
@@ -5202,13 +5265,13 @@
         <v>4048833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5286,13 @@
         <v>1162716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>1439</v>
@@ -5238,13 +5301,13 @@
         <v>1556333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>2541</v>
@@ -5253,13 +5316,13 @@
         <v>2719049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E29F275-A1F0-45F4-A75E-998AE8054DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5F4685-DF98-4A17-8F65-A9E8F36F72EB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5466,10 +5529,10 @@
         <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -5478,13 +5541,13 @@
         <v>127780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>273</v>
@@ -5493,13 +5556,13 @@
         <v>288622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,10 +5580,10 @@
         <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5529,13 +5592,13 @@
         <v>139808</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>243</v>
@@ -5544,13 +5607,13 @@
         <v>264835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5681,13 @@
         <v>301535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>253</v>
@@ -5633,10 +5696,10 @@
         <v>279856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>111</v>
@@ -5648,13 +5711,13 @@
         <v>581391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5732,13 @@
         <v>194296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>211</v>
@@ -5684,13 +5747,13 @@
         <v>220105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>394</v>
@@ -5699,13 +5762,13 @@
         <v>414401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5836,13 @@
         <v>196904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5788,13 +5851,13 @@
         <v>175643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>377</v>
@@ -5803,13 +5866,13 @@
         <v>372547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5887,13 @@
         <v>118234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -5839,13 +5902,13 @@
         <v>151280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -5854,13 +5917,13 @@
         <v>269514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5991,13 @@
         <v>213229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5943,13 +6006,13 @@
         <v>173354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -5958,13 +6021,13 @@
         <v>386582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,16 +6039,16 @@
         <v>134</v>
       </c>
       <c r="D14" s="7">
-        <v>141915</v>
+        <v>141914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -5994,13 +6057,13 @@
         <v>163349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -6009,10 +6072,10 @@
         <v>305264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>98</v>
@@ -6027,7 +6090,7 @@
         <v>340</v>
       </c>
       <c r="D15" s="7">
-        <v>355144</v>
+        <v>355143</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6083,13 +6146,13 @@
         <v>122195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -6098,13 +6161,13 @@
         <v>145778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -6113,13 +6176,13 @@
         <v>267974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6197,13 @@
         <v>84390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6149,13 +6212,13 @@
         <v>70764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -6164,13 +6227,13 @@
         <v>155153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6301,13 @@
         <v>162918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -6253,13 +6316,13 @@
         <v>138279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -6268,13 +6331,13 @@
         <v>301196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6352,13 @@
         <v>100205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -6304,13 +6367,13 @@
         <v>130935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6319,13 +6382,13 @@
         <v>231141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6456,13 @@
         <v>356840</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -6408,13 +6471,13 @@
         <v>271259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -6423,13 +6486,13 @@
         <v>628099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6507,13 @@
         <v>256865</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -6459,13 +6522,13 @@
         <v>372950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>585</v>
@@ -6474,10 +6537,10 @@
         <v>629816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>38</v>
@@ -6548,13 +6611,13 @@
         <v>473265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>394</v>
@@ -6563,13 +6626,13 @@
         <v>435273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>846</v>
@@ -6578,13 +6641,13 @@
         <v>908538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6662,13 @@
         <v>265257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -6614,13 +6677,13 @@
         <v>345915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>580</v>
@@ -6629,13 +6692,13 @@
         <v>611172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6766,13 @@
         <v>1987728</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H28" s="7">
         <v>1624</v>
@@ -6718,13 +6781,13 @@
         <v>1747221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>3521</v>
@@ -6733,13 +6796,13 @@
         <v>3734948</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6817,13 @@
         <v>1286188</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>1536</v>
@@ -6769,13 +6832,13 @@
         <v>1595107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>2755</v>
@@ -6784,13 +6847,13 @@
         <v>2881296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C9675-CB42-410F-9D75-363D163BF7E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96C425-3A63-4B54-8D14-CB25AD6D6868}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6991,46 +7054,46 @@
         <v>221</v>
       </c>
       <c r="D4" s="7">
-        <v>170308</v>
+        <v>198421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>281</v>
       </c>
       <c r="I4" s="7">
-        <v>132670</v>
+        <v>139187</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>502</v>
       </c>
       <c r="N4" s="7">
-        <v>302979</v>
+        <v>337608</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,46 +7105,46 @@
         <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>89990</v>
+        <v>113022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
       </c>
       <c r="I5" s="7">
-        <v>136619</v>
+        <v>148285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
       </c>
       <c r="N5" s="7">
-        <v>226608</v>
+        <v>261307</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7156,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -7108,7 +7171,7 @@
         <v>534</v>
       </c>
       <c r="I6" s="7">
-        <v>269289</v>
+        <v>287472</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -7123,7 +7186,7 @@
         <v>865</v>
       </c>
       <c r="N6" s="7">
-        <v>529587</v>
+        <v>598915</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -7146,46 +7209,46 @@
         <v>260</v>
       </c>
       <c r="D7" s="7">
-        <v>341581</v>
+        <v>337805</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="H7" s="7">
         <v>368</v>
       </c>
       <c r="I7" s="7">
-        <v>270202</v>
+        <v>250802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="M7" s="7">
         <v>628</v>
       </c>
       <c r="N7" s="7">
-        <v>611783</v>
+        <v>588608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>511</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,46 +7260,46 @@
         <v>117</v>
       </c>
       <c r="D8" s="7">
-        <v>172088</v>
+        <v>175337</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
       </c>
       <c r="I8" s="7">
-        <v>262561</v>
+        <v>244030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
       </c>
       <c r="N8" s="7">
-        <v>434649</v>
+        <v>419366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,7 +7311,7 @@
         <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>513669</v>
+        <v>513142</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -7263,7 +7326,7 @@
         <v>682</v>
       </c>
       <c r="I9" s="7">
-        <v>532763</v>
+        <v>494832</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -7278,7 +7341,7 @@
         <v>1059</v>
       </c>
       <c r="N9" s="7">
-        <v>1046432</v>
+        <v>1007974</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -7301,46 +7364,46 @@
         <v>250</v>
       </c>
       <c r="D10" s="7">
-        <v>209920</v>
+        <v>203841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
       </c>
       <c r="I10" s="7">
-        <v>209636</v>
+        <v>195421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
       </c>
       <c r="N10" s="7">
-        <v>419556</v>
+        <v>399262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7415,46 @@
         <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>105831</v>
+        <v>105977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
       </c>
       <c r="I11" s="7">
-        <v>149861</v>
+        <v>140985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
       </c>
       <c r="N11" s="7">
-        <v>255692</v>
+        <v>246962</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,7 +7466,7 @@
         <v>351</v>
       </c>
       <c r="D12" s="7">
-        <v>315751</v>
+        <v>309818</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -7418,7 +7481,7 @@
         <v>511</v>
       </c>
       <c r="I12" s="7">
-        <v>359497</v>
+        <v>336406</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -7433,7 +7496,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>675248</v>
+        <v>646224</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -7456,46 +7519,46 @@
         <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>192670</v>
+        <v>189472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>269</v>
       </c>
       <c r="I13" s="7">
-        <v>186172</v>
+        <v>228342</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
       </c>
       <c r="N13" s="7">
-        <v>378842</v>
+        <v>417814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,46 +7570,46 @@
         <v>83</v>
       </c>
       <c r="D14" s="7">
-        <v>101568</v>
+        <v>96521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>182378</v>
+        <v>167650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
       </c>
       <c r="N14" s="7">
-        <v>283946</v>
+        <v>264171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7621,7 @@
         <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>294238</v>
+        <v>285993</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -7573,7 +7636,7 @@
         <v>499</v>
       </c>
       <c r="I15" s="7">
-        <v>368550</v>
+        <v>395992</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -7588,7 +7651,7 @@
         <v>751</v>
       </c>
       <c r="N15" s="7">
-        <v>662788</v>
+        <v>681985</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7611,46 +7674,46 @@
         <v>151</v>
       </c>
       <c r="D16" s="7">
-        <v>105215</v>
+        <v>95869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>558</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
       </c>
       <c r="I16" s="7">
-        <v>123754</v>
+        <v>112311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
       </c>
       <c r="N16" s="7">
-        <v>228969</v>
+        <v>208180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,46 +7725,46 @@
         <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>90781</v>
+        <v>82197</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
       </c>
       <c r="I17" s="7">
-        <v>106077</v>
+        <v>94397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>331</v>
       </c>
       <c r="N17" s="7">
-        <v>196858</v>
+        <v>176594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,7 +7776,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195996</v>
+        <v>178066</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7728,7 +7791,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>229831</v>
+        <v>206708</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7743,7 +7806,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>425827</v>
+        <v>384774</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7766,46 +7829,46 @@
         <v>268</v>
       </c>
       <c r="D19" s="7">
-        <v>191457</v>
+        <v>185300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>248</v>
       </c>
       <c r="I19" s="7">
-        <v>125561</v>
+        <v>117507</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>551</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>516</v>
       </c>
       <c r="N19" s="7">
-        <v>317019</v>
+        <v>302806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,46 +7880,46 @@
         <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>83714</v>
+        <v>82389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
       </c>
       <c r="I20" s="7">
-        <v>141643</v>
+        <v>131784</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>560</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
       </c>
       <c r="N20" s="7">
-        <v>225357</v>
+        <v>214173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,7 +7931,7 @@
         <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>275171</v>
+        <v>267689</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7883,7 +7946,7 @@
         <v>442</v>
       </c>
       <c r="I21" s="7">
-        <v>267204</v>
+        <v>249291</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7898,7 +7961,7 @@
         <v>810</v>
       </c>
       <c r="N21" s="7">
-        <v>542376</v>
+        <v>516979</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7921,46 +7984,46 @@
         <v>384</v>
       </c>
       <c r="D22" s="7">
-        <v>371572</v>
+        <v>362703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
       </c>
       <c r="I22" s="7">
-        <v>426371</v>
+        <v>498109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>858</v>
       </c>
       <c r="N22" s="7">
-        <v>797944</v>
+        <v>860811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,46 +8035,46 @@
         <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>245842</v>
+        <v>251477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>594</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
       </c>
       <c r="I23" s="7">
-        <v>354182</v>
+        <v>329403</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>596</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>575</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
       </c>
       <c r="N23" s="7">
-        <v>600024</v>
+        <v>580881</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,7 +8086,7 @@
         <v>588</v>
       </c>
       <c r="D24" s="7">
-        <v>617414</v>
+        <v>614180</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -8038,7 +8101,7 @@
         <v>931</v>
       </c>
       <c r="I24" s="7">
-        <v>780553</v>
+        <v>827512</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -8053,7 +8116,7 @@
         <v>1519</v>
       </c>
       <c r="N24" s="7">
-        <v>1397968</v>
+        <v>1441692</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -8076,46 +8139,46 @@
         <v>470</v>
       </c>
       <c r="D25" s="7">
-        <v>510191</v>
+        <v>634673</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
       </c>
       <c r="I25" s="7">
-        <v>462761</v>
+        <v>387339</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>1095</v>
       </c>
       <c r="N25" s="7">
-        <v>972952</v>
+        <v>1022012</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,46 +8190,46 @@
         <v>281</v>
       </c>
       <c r="D26" s="7">
-        <v>336574</v>
+        <v>283234</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>415</v>
       </c>
       <c r="I26" s="7">
-        <v>386096</v>
+        <v>314625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>696</v>
       </c>
       <c r="N26" s="7">
-        <v>722670</v>
+        <v>597860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,7 +8241,7 @@
         <v>751</v>
       </c>
       <c r="D27" s="7">
-        <v>846765</v>
+        <v>917907</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -8193,7 +8256,7 @@
         <v>1040</v>
       </c>
       <c r="I27" s="7">
-        <v>848857</v>
+        <v>701964</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -8208,7 +8271,7 @@
         <v>1791</v>
       </c>
       <c r="N27" s="7">
-        <v>1695622</v>
+        <v>1619872</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -8231,46 +8294,46 @@
         <v>2173</v>
       </c>
       <c r="D28" s="7">
-        <v>2092914</v>
+        <v>2208083</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="H28" s="7">
         <v>2870</v>
       </c>
       <c r="I28" s="7">
-        <v>1937128</v>
+        <v>1929019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>5043</v>
       </c>
       <c r="N28" s="7">
-        <v>4030042</v>
+        <v>4137102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,46 +8345,46 @@
         <v>1123</v>
       </c>
       <c r="D29" s="7">
-        <v>1226388</v>
+        <v>1190155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>2259</v>
       </c>
       <c r="I29" s="7">
-        <v>1719416</v>
+        <v>1571159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>71</v>
       </c>
       <c r="M29" s="7">
         <v>3382</v>
       </c>
       <c r="N29" s="7">
-        <v>2945804</v>
+        <v>2761314</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,7 +8396,7 @@
         <v>3296</v>
       </c>
       <c r="D30" s="7">
-        <v>3319302</v>
+        <v>3398238</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -8348,7 +8411,7 @@
         <v>5129</v>
       </c>
       <c r="I30" s="7">
-        <v>3656544</v>
+        <v>3500178</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -8363,7 +8426,7 @@
         <v>8425</v>
       </c>
       <c r="N30" s="7">
-        <v>6975846</v>
+        <v>6898416</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
